--- a/simple-test/test/Results_Chords.xlsx
+++ b/simple-test/test/Results_Chords.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="new (frame)" sheetId="1" r:id="rId1"/>
+    <sheet name="new (beats)" sheetId="2" r:id="rId2"/>
+    <sheet name="old" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="67">
   <si>
     <t>hopSize</t>
   </si>
@@ -191,6 +192,36 @@
   </si>
   <si>
     <t>test10d</t>
+  </si>
+  <si>
+    <t>old 'Key' version</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
   </si>
 </sst>
 </file>
@@ -240,7 +271,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,12 +281,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +300,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -309,20 +334,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -339,6 +402,24 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -355,6 +436,24 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -687,7 +786,7 @@
   <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16:Z16"/>
+      <selection activeCell="A18" sqref="A1:Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -781,430 +880,267 @@
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>4096</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6">
         <v>4096</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="6">
         <v>4096</v>
       </c>
-      <c r="F3" s="1">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="7">
         <v>4096</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="7">
         <v>4096</v>
       </c>
-      <c r="I3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="K3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="N3" s="1">
-        <f>M3</f>
-        <v>4096</v>
-      </c>
-      <c r="O3" s="1">
-        <f>M3</f>
-        <v>4096</v>
-      </c>
-      <c r="P3" s="1">
-        <f>M3</f>
-        <v>4096</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="S3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="T3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="U3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="X3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>4096</v>
-      </c>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>1024</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7">
         <v>1024</v>
       </c>
-      <c r="E4" s="1">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="7">
         <v>1024</v>
       </c>
-      <c r="F4" s="1">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="7">
+        <v>2048</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="7">
         <v>1024</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3">
-        <v>1024</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1024</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1024</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1024</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3">
-        <v>1024</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1024</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1024</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1024</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="5">
-        <v>2048</v>
-      </c>
-      <c r="S4" s="6">
-        <v>2048</v>
-      </c>
-      <c r="T4" s="6">
-        <v>2048</v>
-      </c>
-      <c r="U4" s="6">
-        <v>2048</v>
-      </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="5">
-        <v>1024</v>
-      </c>
-      <c r="X4" s="6">
-        <v>1024</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>1024</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>1024</v>
-      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="3" t="b">
+      <c r="C5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="b">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="b">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="b">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="W5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>0.6</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7">
         <v>0.6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="7">
         <v>0.6</v>
       </c>
-      <c r="F6" s="1">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="7">
         <v>0.6</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3">
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="7">
         <v>0.6</v>
       </c>
-      <c r="I6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0.6</v>
-      </c>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="5">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6">
-        <v>10</v>
-      </c>
-      <c r="J7" s="6">
-        <v>10</v>
-      </c>
-      <c r="K7" s="6">
-        <v>10</v>
-      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="5">
-        <v>4</v>
-      </c>
-      <c r="S7" s="6">
-        <v>4</v>
-      </c>
-      <c r="T7" s="6">
-        <v>4</v>
-      </c>
-      <c r="U7" s="6">
-        <v>4</v>
-      </c>
+      <c r="R7" s="7">
+        <v>10</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
       <c r="V7" s="2"/>
       <c r="W7" s="7">
-        <v>4</v>
-      </c>
-      <c r="X7" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="7">
         <v>12</v>
       </c>
-      <c r="F8" s="1">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="7">
         <v>12</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3">
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="7">
         <v>12</v>
       </c>
-      <c r="I8" s="1">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1">
-        <v>12</v>
-      </c>
-      <c r="K8" s="1">
-        <v>12</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3">
-        <v>12</v>
-      </c>
-      <c r="N8" s="1">
-        <v>12</v>
-      </c>
-      <c r="O8" s="1">
-        <v>12</v>
-      </c>
-      <c r="P8" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="3">
-        <v>12</v>
-      </c>
-      <c r="S8" s="1">
-        <v>12</v>
-      </c>
-      <c r="T8" s="1">
-        <v>12</v>
-      </c>
-      <c r="U8" s="1">
-        <v>12</v>
-      </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="3">
-        <v>12</v>
-      </c>
-      <c r="X8" s="1">
-        <v>12</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>12</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>12</v>
-      </c>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="2"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="2"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
       <c r="V9" s="2"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
@@ -1379,68 +1315,68 @@
         <v>12</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>0.7923</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>0.7853</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="5">
         <v>0.42430000000000001</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="5">
         <v>0.35880000000000001</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="9">
+      <c r="H16" s="5">
         <v>0.79220000000000002</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="5">
         <v>0.78510000000000002</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="5">
         <v>0.4244</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="5">
         <v>0.35899999999999999</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="9">
+      <c r="M16" s="5">
         <v>0.79220000000000002</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="5">
         <v>0.78449999999999998</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="5">
         <v>0.42420000000000002</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="5">
         <v>0.35859999999999997</v>
       </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="9">
+      <c r="R16" s="5">
         <v>0.78349999999999997</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="5">
         <v>0.77880000000000005</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="5">
         <v>0.42009999999999997</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="5">
         <v>0.35630000000000001</v>
       </c>
       <c r="V16" s="2"/>
-      <c r="W16" s="9">
+      <c r="W16" s="5">
         <v>0.78349999999999997</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="5">
         <v>0.77880000000000005</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="5">
         <v>0.42009999999999997</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="5">
         <v>0.35630000000000001</v>
       </c>
     </row>
@@ -1585,6 +1521,43 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1599,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -1694,140 +1667,80 @@
         <v>5</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>4096</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6">
         <v>4096</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="6">
         <v>4096</v>
       </c>
-      <c r="F3" s="1">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="7">
         <v>4096</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1">
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="7">
         <v>4096</v>
       </c>
-      <c r="I3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="K3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="N3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="O3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="P3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="S3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="T3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="U3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="X3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>4096</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>4096</v>
-      </c>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>1024</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7">
         <v>1024</v>
       </c>
-      <c r="E4" s="1">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="7">
         <v>1024</v>
       </c>
-      <c r="F4" s="1">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="7">
+        <v>2048</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="7">
         <v>1024</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3">
-        <v>1024</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1024</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1024</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1024</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="3">
-        <v>1024</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1024</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1024</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1024</v>
-      </c>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="5">
-        <v>2048</v>
-      </c>
-      <c r="S4" s="6">
-        <v>2048</v>
-      </c>
-      <c r="T4" s="6">
-        <v>2048</v>
-      </c>
-      <c r="U4" s="6">
-        <v>2048</v>
-      </c>
-      <c r="V4" s="2"/>
-      <c r="W4" s="5">
-        <v>1024</v>
-      </c>
-      <c r="X4" s="6">
-        <v>1024</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>1024</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>1024</v>
-      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
@@ -1835,286 +1748,186 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="2"/>
       <c r="H5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="2"/>
       <c r="M5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="S5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="X5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="6" t="b">
-        <v>1</v>
-      </c>
+      <c r="W5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>0.6</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7">
         <v>0.6</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="7">
         <v>0.6</v>
       </c>
-      <c r="F6" s="1">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="7">
         <v>0.6</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3">
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="7">
         <v>0.6</v>
       </c>
-      <c r="I6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="S6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>0.6</v>
-      </c>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>4</v>
-      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="5">
-        <v>10</v>
-      </c>
-      <c r="I7" s="6">
-        <v>10</v>
-      </c>
-      <c r="J7" s="6">
-        <v>10</v>
-      </c>
-      <c r="K7" s="6">
-        <v>10</v>
-      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="5">
-        <v>10</v>
-      </c>
-      <c r="S7" s="6">
-        <v>10</v>
-      </c>
-      <c r="T7" s="6">
-        <v>10</v>
-      </c>
-      <c r="U7" s="6">
-        <v>10</v>
-      </c>
+      <c r="R7" s="7">
+        <v>10</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
       <c r="V7" s="2"/>
       <c r="W7" s="7">
         <v>10</v>
       </c>
-      <c r="X7" s="8">
-        <v>10</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>10</v>
-      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7">
         <v>12</v>
       </c>
-      <c r="E8" s="1">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="7">
         <v>12</v>
       </c>
-      <c r="F8" s="1">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="7">
         <v>12</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3">
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="7">
         <v>12</v>
       </c>
-      <c r="I8" s="1">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1">
-        <v>12</v>
-      </c>
-      <c r="K8" s="1">
-        <v>12</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3">
-        <v>12</v>
-      </c>
-      <c r="N8" s="1">
-        <v>12</v>
-      </c>
-      <c r="O8" s="1">
-        <v>12</v>
-      </c>
-      <c r="P8" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="3">
-        <v>12</v>
-      </c>
-      <c r="S8" s="1">
-        <v>12</v>
-      </c>
-      <c r="T8" s="1">
-        <v>12</v>
-      </c>
-      <c r="U8" s="1">
-        <v>12</v>
-      </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="3">
-        <v>12</v>
-      </c>
-      <c r="X8" s="1">
-        <v>12</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>12</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>12</v>
-      </c>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26">
       <c r="B9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="2"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
       <c r="L9" s="2"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="2"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
       <c r="V9" s="2"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
@@ -2289,68 +2102,68 @@
         <v>12</v>
       </c>
       <c r="B16" s="2"/>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>0.6613</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>0.6593</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="5">
         <v>0.35670000000000002</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="5">
         <v>0.30059999999999998</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="9">
+      <c r="H16" s="5">
         <v>0.63129999999999997</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="5">
         <v>0.6593</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="5">
         <v>0.35670000000000002</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="5">
         <v>0.30059999999999998</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="9">
+      <c r="M16" s="5">
         <v>0.6613</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="5">
         <v>0.6593</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="5">
         <v>0.35670000000000002</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="5">
         <v>0.30059999999999998</v>
       </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="9">
+      <c r="R16" s="5">
         <v>0.6613</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="5">
         <v>0.6593</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="5">
         <v>0.35670000000000002</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="5">
         <v>0.30059999999999998</v>
       </c>
       <c r="V16" s="2"/>
-      <c r="W16" s="9">
+      <c r="W16" s="5">
         <v>0.63129999999999997</v>
       </c>
-      <c r="X16" s="9">
+      <c r="X16" s="5">
         <v>0.6593</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="5">
         <v>0.35670000000000002</v>
       </c>
-      <c r="Z16" s="9">
+      <c r="Z16" s="5">
         <v>0.30059999999999998</v>
       </c>
     </row>
@@ -2495,6 +2308,43 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="W4:Z4"/>
+  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="58" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2508,4 +2358,825 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:Z1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="3.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="3.6640625" style="1" customWidth="1"/>
+    <col min="18" max="21" width="10.83203125" style="1"/>
+    <col min="22" max="22" width="4.5" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1"/>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="6">
+        <v>4096</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="6">
+        <v>4096</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="6">
+        <v>4096</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="7">
+        <v>4096</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="7">
+        <v>4096</v>
+      </c>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="7">
+        <v>1024</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7">
+        <v>1024</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="7">
+        <v>1024</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="7">
+        <v>2048</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="7">
+        <v>1024</v>
+      </c>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="7">
+        <v>10</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="7">
+        <v>10</v>
+      </c>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="7">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="7">
+        <v>12</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="7">
+        <v>12</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="7">
+        <v>12</v>
+      </c>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="B9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="B13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="B14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="B15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="5">
+        <v>0.6613</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.6593</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="5">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.6593</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="5">
+        <v>0.6613</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.6593</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="5">
+        <v>0.6613</v>
+      </c>
+      <c r="S16" s="5">
+        <v>0.6593</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="V16" s="2"/>
+      <c r="W16" s="5">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0.6593</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0.30059999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="W9:Z9"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="W7:Z7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="W8:Z8"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="M6:P6"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="W6:Z6"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="W4:Z4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/simple-test/test/Results_Chords.xlsx
+++ b/simple-test/test/Results_Chords.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="new (frame)" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
   <si>
     <t>hopSize</t>
   </si>
@@ -212,16 +212,31 @@
     <t>test11</t>
   </si>
   <si>
-    <t>test12</t>
-  </si>
-  <si>
-    <t>test13</t>
-  </si>
-  <si>
-    <t>test14</t>
-  </si>
-  <si>
-    <t>test15</t>
+    <t>test12a</t>
+  </si>
+  <si>
+    <t>test12b</t>
+  </si>
+  <si>
+    <t>test12c</t>
+  </si>
+  <si>
+    <t>test12d</t>
+  </si>
+  <si>
+    <t>test13a</t>
+  </si>
+  <si>
+    <t>test13b</t>
+  </si>
+  <si>
+    <t>test13c</t>
+  </si>
+  <si>
+    <t>test13d</t>
+  </si>
+  <si>
+    <t>joinrepeated</t>
   </si>
 </sst>
 </file>
@@ -300,8 +315,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -385,7 +406,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -420,6 +441,9 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -454,6 +478,9 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -783,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:Z18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AK16" sqref="AK16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -801,10 +828,14 @@
     <col min="17" max="17" width="3.6640625" style="1" customWidth="1"/>
     <col min="18" max="21" width="10.83203125" style="1"/>
     <col min="22" max="22" width="3.6640625" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="1"/>
+    <col min="23" max="26" width="10.83203125" style="1"/>
+    <col min="27" max="27" width="4.33203125" style="1" customWidth="1"/>
+    <col min="28" max="31" width="10.83203125" style="1"/>
+    <col min="32" max="32" width="4.1640625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -873,9 +904,35 @@
       <c r="Z1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1"/>
-    <row r="3" spans="1:26">
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="2" customFormat="1"/>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -914,8 +971,22 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="7">
+        <v>4096</v>
+      </c>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="7">
+        <v>4096</v>
+      </c>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -954,8 +1025,22 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="7">
+        <v>1024</v>
+      </c>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="7">
+        <v>1024</v>
+      </c>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -994,8 +1079,22 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,8 +1133,22 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1074,8 +1187,22 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="7">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="7">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
+      <c r="AJ7" s="7"/>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1114,8 +1241,25 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="7">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="7">
+        <v>12</v>
+      </c>
+      <c r="AH8" s="7"/>
+      <c r="AI8" s="7"/>
+      <c r="AJ8" s="7"/>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1141,8 +1285,22 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="7"/>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1211,8 +1369,34 @@
       <c r="Z10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1281,36 +1465,70 @@
       <c r="Z11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="B12" s="2"/>
       <c r="G12" s="2"/>
       <c r="L12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" s="2"/>
+      <c r="AF12" s="2"/>
+    </row>
+    <row r="13" spans="1:36">
       <c r="B13" s="2"/>
       <c r="G13" s="2"/>
       <c r="L13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" s="2"/>
+      <c r="AF13" s="2"/>
+    </row>
+    <row r="14" spans="1:36">
       <c r="B14" s="2"/>
       <c r="G14" s="2"/>
       <c r="L14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" s="2"/>
+      <c r="AF14" s="2"/>
+    </row>
+    <row r="15" spans="1:36">
       <c r="B15" s="2"/>
       <c r="G15" s="2"/>
       <c r="L15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" s="2"/>
+      <c r="AF15" s="2"/>
+    </row>
+    <row r="16" spans="1:36">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1379,8 +1597,34 @@
       <c r="Z16" s="5">
         <v>0.35630000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -1449,8 +1693,34 @@
       <c r="Z17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1519,9 +1789,49 @@
       <c r="Z18" s="1">
         <v>0</v>
       </c>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="49">
+    <mergeCell ref="AB8:AE8"/>
+    <mergeCell ref="AB9:AE9"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AG9:AJ9"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="AB7:AE7"/>
     <mergeCell ref="W9:Z9"/>
     <mergeCell ref="W3:Z3"/>
     <mergeCell ref="W4:Z4"/>
@@ -2362,10 +2672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:Z1"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="Z18" sqref="H1:Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -2383,7 +2693,7 @@
     <col min="23" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -2395,36 +2705,9 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1"/>
-    <row r="3" spans="1:26">
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1"/>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2436,35 +2719,8 @@
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="6">
-        <v>4096</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="6">
-        <v>4096</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="7">
-        <v>4096</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="7">
-        <v>4096</v>
-      </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-    </row>
-    <row r="4" spans="1:26">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2476,35 +2732,8 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="7">
-        <v>1024</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="7">
-        <v>2048</v>
-      </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="7">
-        <v>1024</v>
-      </c>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-    </row>
-    <row r="5" spans="1:26">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -2516,35 +2745,8 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-    </row>
-    <row r="6" spans="1:26">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2556,35 +2758,8 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-    </row>
-    <row r="7" spans="1:26">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -2596,35 +2771,8 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="7">
-        <v>10</v>
-      </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="7">
-        <v>10</v>
-      </c>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-    </row>
-    <row r="8" spans="1:26">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -2636,62 +2784,16 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="7">
-        <v>12</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="7">
-        <v>12</v>
-      </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="7">
-        <v>12</v>
-      </c>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-    </row>
-    <row r="9" spans="1:26">
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-    </row>
-    <row r="10" spans="1:26">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2709,59 +2811,8 @@
         <v>11</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2779,59 +2830,8 @@
         <v>10</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
         <v>58</v>
@@ -2846,150 +2846,39 @@
         <v>61</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
+    </row>
+    <row r="13" spans="1:7">
       <c r="B13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:26">
+    </row>
+    <row r="14" spans="1:7">
       <c r="B14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:26">
+    </row>
+    <row r="15" spans="1:7">
       <c r="B15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:26">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="5">
-        <v>0.6613</v>
+        <v>0.02</v>
       </c>
       <c r="D16" s="5">
-        <v>0.6593</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>0.35670000000000002</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="F16" s="5">
-        <v>0.30059999999999998</v>
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="5">
-        <v>0.63129999999999997</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0.6593</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0.30059999999999998</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="5">
-        <v>0.6613</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0.6593</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="P16" s="5">
-        <v>0.30059999999999998</v>
-      </c>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="5">
-        <v>0.6613</v>
-      </c>
-      <c r="S16" s="5">
-        <v>0.6593</v>
-      </c>
-      <c r="T16" s="5">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0.30059999999999998</v>
-      </c>
-      <c r="V16" s="2"/>
-      <c r="W16" s="5">
-        <v>0.63129999999999997</v>
-      </c>
-      <c r="X16" s="5">
-        <v>0.6593</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>0.35670000000000002</v>
-      </c>
-      <c r="Z16" s="5">
-        <v>0.30059999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
@@ -3007,59 +2896,8 @@
         <v>0</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="1">
-        <v>0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>0</v>
-      </c>
-      <c r="U17" s="1">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2"/>
-      <c r="W17" s="1">
-        <v>0</v>
-      </c>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -3077,100 +2915,17 @@
         <v>0</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="1">
-        <v>0</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>0</v>
-      </c>
-      <c r="U18" s="1">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2"/>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="8">
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="W9:Z9"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="M7:P7"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="W7:Z7"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="W8:Z8"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="W5:Z5"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="M6:P6"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="W6:Z6"/>
     <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="W3:Z3"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="W4:Z4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
